--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_test.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_test.xlsx
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7757839506172839</v>
+        <v>0.7592577319587629</v>
       </c>
       <c r="C4">
-        <v>0.009138729430861359</v>
+        <v>0.008927320112914749</v>
       </c>
       <c r="D4">
-        <v>0.3928734341327783</v>
+        <v>0.3864569501867838</v>
       </c>
       <c r="E4">
-        <v>0.007650974319974191</v>
+        <v>0.006946413676431951</v>
       </c>
       <c r="F4">
-        <v>0.8700000000000001</v>
+        <v>0.8970000000000001</v>
       </c>
       <c r="G4">
-        <v>0.02260868338978006</v>
+        <v>0.01765864131510031</v>
       </c>
       <c r="H4">
-        <v>0.2554001014364838</v>
+        <v>0.2479194220578691</v>
       </c>
       <c r="I4">
-        <v>0.005775857622874747</v>
+        <v>0.005838338395717041</v>
       </c>
       <c r="J4">
-        <v>0.9544298118159298</v>
+        <v>0.9579089135814983</v>
       </c>
       <c r="K4">
-        <v>0.006490696723939315</v>
+        <v>0.005900761907861152</v>
       </c>
       <c r="L4">
-        <v>0.4848888888888889</v>
+        <v>0.4262886597938145</v>
       </c>
       <c r="M4">
-        <v>0.02073991061918612</v>
+        <v>0.02365859305819346</v>
       </c>
       <c r="N4">
-        <v>0.5490740740740742</v>
+        <v>0.5067521367521368</v>
       </c>
       <c r="O4">
-        <v>0.01511307340259682</v>
+        <v>0.01773173775148118</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7991975308641976</v>
+        <v>0.7894536082474228</v>
       </c>
       <c r="C5">
-        <v>0.008143862441739813</v>
+        <v>0.008909494496943893</v>
       </c>
       <c r="D5">
-        <v>0.4187143475362174</v>
+        <v>0.3966339624328408</v>
       </c>
       <c r="E5">
-        <v>0.009241330517532453</v>
+        <v>0.00644298262614873</v>
       </c>
       <c r="F5">
-        <v>0.8622222222222221</v>
+        <v>0.8754999999999999</v>
       </c>
       <c r="G5">
-        <v>0.019283759177535</v>
+        <v>0.01857376908946817</v>
       </c>
       <c r="H5">
-        <v>0.2789352578801342</v>
+        <v>0.258347939809759</v>
       </c>
       <c r="I5">
-        <v>0.007885548782927687</v>
+        <v>0.00579572480114332</v>
       </c>
       <c r="J5">
-        <v>0.9549995321445612</v>
+        <v>0.9535984108322337</v>
       </c>
       <c r="K5">
-        <v>0.005680994987716015</v>
+        <v>0.006018151350753898</v>
       </c>
       <c r="L5">
-        <v>0.5398888888888889</v>
+        <v>0.4695876288659793</v>
       </c>
       <c r="M5">
-        <v>0.02350222487552933</v>
+        <v>0.0230450019889904</v>
       </c>
       <c r="N5">
-        <v>0.5936111111111111</v>
+        <v>0.538974358974359</v>
       </c>
       <c r="O5">
-        <v>0.0180407147931595</v>
+        <v>0.01687121793437163</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8500961538461539</v>
+        <v>0.8572093023255815</v>
       </c>
       <c r="C6">
-        <v>0.01108472462532872</v>
+        <v>0.01167665952233943</v>
       </c>
       <c r="D6">
-        <v>0.4713863837915077</v>
+        <v>0.4572111720772483</v>
       </c>
       <c r="E6">
-        <v>0.01517864912451417</v>
+        <v>0.01553531379634521</v>
       </c>
       <c r="F6">
-        <v>0.865</v>
+        <v>0.8225</v>
       </c>
       <c r="G6">
-        <v>0.03224834303371771</v>
+        <v>0.03347739715972098</v>
       </c>
       <c r="H6">
-        <v>0.328939289088562</v>
+        <v>0.322390094747894</v>
       </c>
       <c r="I6">
-        <v>0.01205703833034705</v>
+        <v>0.01295597035353274</v>
       </c>
       <c r="J6">
-        <v>0.9628074501514707</v>
+        <v>0.9569443364864785</v>
       </c>
       <c r="K6">
-        <v>0.008148414737476628</v>
+        <v>0.007729138464576457</v>
       </c>
       <c r="L6">
-        <v>0.6251282051282051</v>
+        <v>0.6648837209302324</v>
       </c>
       <c r="M6">
-        <v>0.02278496988098444</v>
+        <v>0.02126371220280454</v>
       </c>
       <c r="N6">
-        <v>0.6659574468085107</v>
+        <v>0.6896078431372549</v>
       </c>
       <c r="O6">
-        <v>0.01696672154005185</v>
+        <v>0.0159990198585217</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8342948717948718</v>
+        <v>0.8604069767441861</v>
       </c>
       <c r="C7">
-        <v>0.01159262826048935</v>
+        <v>0.01151777165100543</v>
       </c>
       <c r="D7">
-        <v>0.4838549983024953</v>
+        <v>0.5009317916803756</v>
       </c>
       <c r="E7">
-        <v>0.01884229341809565</v>
+        <v>0.01614816511843231</v>
       </c>
       <c r="F7">
-        <v>0.765</v>
+        <v>0.805</v>
       </c>
       <c r="G7">
-        <v>0.0420502417917803</v>
+        <v>0.04205615229033954</v>
       </c>
       <c r="H7">
-        <v>0.3665515273101086</v>
+        <v>0.3775538376393646</v>
       </c>
       <c r="I7">
-        <v>0.01636956163431885</v>
+        <v>0.0139327989797165</v>
       </c>
       <c r="J7">
-        <v>0.9437434260958406</v>
+        <v>0.9587834491475885</v>
       </c>
       <c r="K7">
-        <v>0.009419387012057467</v>
+        <v>0.008194008784329188</v>
       </c>
       <c r="L7">
-        <v>0.7141025641025641</v>
+        <v>0.7416279069767442</v>
       </c>
       <c r="M7">
-        <v>0.02365864826325159</v>
+        <v>0.01912056572229093</v>
       </c>
       <c r="N7">
-        <v>0.7227659574468086</v>
+        <v>0.7515686274509804</v>
       </c>
       <c r="O7">
-        <v>0.01618421967986405</v>
+        <v>0.01231632940437777</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.806577540106952</v>
+        <v>0.7927364864864866</v>
       </c>
       <c r="C8">
-        <v>0.01142616817862752</v>
+        <v>0.01186510999896451</v>
       </c>
       <c r="D8">
-        <v>0.4187621178101029</v>
+        <v>0.3723325064545403</v>
       </c>
       <c r="E8">
-        <v>0.01077448587715718</v>
+        <v>0.008210342601675746</v>
       </c>
       <c r="F8">
-        <v>0.8281818181818181</v>
+        <v>0.8200000000000002</v>
       </c>
       <c r="G8">
-        <v>0.02699913519520503</v>
+        <v>0.03124267142913173</v>
       </c>
       <c r="H8">
-        <v>0.2860806892414173</v>
+        <v>0.2452843641918851</v>
       </c>
       <c r="I8">
-        <v>0.01039696867923701</v>
+        <v>0.007086609259388352</v>
       </c>
       <c r="J8">
-        <v>0.9632601502721454</v>
+        <v>0.9584100423565747</v>
       </c>
       <c r="K8">
-        <v>0.005408524007107562</v>
+        <v>0.006054910707571803</v>
       </c>
       <c r="L8">
-        <v>0.6444117647058825</v>
+        <v>0.5756756756756757</v>
       </c>
       <c r="M8">
-        <v>0.02562814760827559</v>
+        <v>0.02604712354827299</v>
       </c>
       <c r="N8">
-        <v>0.67</v>
+        <v>0.6097674418604652</v>
       </c>
       <c r="O8">
-        <v>0.01935103536983351</v>
+        <v>0.01889066459489863</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8265508021390374</v>
+        <v>0.8320945945945946</v>
       </c>
       <c r="C9">
-        <v>0.009694171961292741</v>
+        <v>0.009367732151440711</v>
       </c>
       <c r="D9">
-        <v>0.4438742928975487</v>
+        <v>0.4416243838119956</v>
       </c>
       <c r="E9">
-        <v>0.01270171647043816</v>
+        <v>0.01089967191762281</v>
       </c>
       <c r="F9">
-        <v>0.7736363636363636</v>
+        <v>0.7941666666666666</v>
       </c>
       <c r="G9">
-        <v>0.03124278831614535</v>
+        <v>0.02755405881794692</v>
       </c>
       <c r="H9">
-        <v>0.3148896171926434</v>
+        <v>0.3096317623089735</v>
       </c>
       <c r="I9">
-        <v>0.009192977212771625</v>
+        <v>0.009078048125089833</v>
       </c>
       <c r="J9">
-        <v>0.9543479923250855</v>
+        <v>0.9570775403767904</v>
       </c>
       <c r="K9">
-        <v>0.005720213615175274</v>
+        <v>0.005337486247145584</v>
       </c>
       <c r="L9">
-        <v>0.7236764705882354</v>
+        <v>0.7064864864864866</v>
       </c>
       <c r="M9">
-        <v>0.01525716637144992</v>
+        <v>0.01437704042647936</v>
       </c>
       <c r="N9">
-        <v>0.730632911392405</v>
+        <v>0.7187209302325581</v>
       </c>
       <c r="O9">
-        <v>0.01128390957939485</v>
+        <v>0.01050772814818812</v>
       </c>
     </row>
   </sheetData>
